--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3153510.349658802</v>
+        <v>3152676.027243416</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613646</v>
+        <v>5736895.963613642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259461</v>
+        <v>1169739.12625946</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>96.26929529156857</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>31.25513059701328</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>113.6794429932548</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.8750864717063</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>237.2598418380535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>93.15222177334222</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>268.7945766968678</v>
+        <v>126.2672191006957</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>20.78297368668171</v>
+        <v>43.1792939440212</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -1305,13 +1305,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>220.264774625403</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.6942298771791</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722221</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
         <v>224.990945096747</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>78.27100207813105</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>57.32385400206101</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975954</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1672,7 +1672,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>136.078945437374</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>136.7849898522315</v>
       </c>
       <c r="W16" t="n">
-        <v>86.99602067355717</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.9893033297595</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U17" t="n">
         <v>224.990945096747</v>
@@ -2004,25 +2004,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>131.1063301618461</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332976053</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>40.6445896598841</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
         <v>85.68364371037913</v>
@@ -2289,22 +2289,22 @@
         <v>54.92104941501638</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
         <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>163.3620110575347</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.989399898785</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415074</v>
       </c>
       <c r="C23" t="n">
         <v>376.5244030535246</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.3929388208843</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>92.04631046612144</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
         <v>85.68364371037913</v>
@@ -2526,7 +2526,7 @@
         <v>54.92104941501638</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
         <v>207.654309906727</v>
@@ -2538,13 +2538,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>183.0290583729728</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227056</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D26" t="n">
-        <v>384.7482751507131</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711153</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686923</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G26" t="n">
-        <v>388.9699858089391</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414022</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894059</v>
+        <v>69.81722959894051</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.2572489966832</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554528</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>238.818871365928</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V26" t="n">
-        <v>330.6681636597272</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W26" t="n">
-        <v>364.2516823990261</v>
+        <v>361.1461921167647</v>
       </c>
       <c r="X26" t="n">
-        <v>380.96594839558</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642338</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.151693872947</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567437</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2286827731621</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>109.4416199931409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733577</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.906871706555</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>106.9202381189671</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956012</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817319</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617565</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y28" t="n">
         <v>206.8173261679659</v>
@@ -2794,25 +2794,25 @@
         <v>390.4479524106875</v>
       </c>
       <c r="C29" t="n">
-        <v>182.9334352849909</v>
+        <v>252.7506648839324</v>
       </c>
       <c r="D29" t="n">
-        <v>384.7482751507131</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711153</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686923</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G29" t="n">
-        <v>388.9699858089391</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414022</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.2572489966832</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554528</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U29" t="n">
-        <v>238.818871365928</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V29" t="n">
-        <v>330.6681636597272</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W29" t="n">
-        <v>364.2516823990261</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X29" t="n">
-        <v>380.96594839558</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642338</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567437</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2286827731621</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>143.6306915232067</v>
       </c>
       <c r="F31" t="n">
-        <v>1.603114569257988</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>149.906871706555</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854409</v>
+        <v>104.927640540764</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997956012</v>
+        <v>99.51156997956005</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419736</v>
+        <v>68.74897568419729</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U31" t="n">
-        <v>264.2991505221801</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>260.6079523890573</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617565</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>390.3523293227055</v>
       </c>
       <c r="D32" t="n">
-        <v>295.5866301096818</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E32" t="n">
         <v>394.5257978711152</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686923</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G32" t="n">
-        <v>388.9699858089391</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414022</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894056</v>
+        <v>69.81722959894051</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554528</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U32" t="n">
-        <v>238.818871365928</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V32" t="n">
-        <v>330.6681636597271</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W32" t="n">
-        <v>364.2516823990261</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X32" t="n">
-        <v>380.96594839558</v>
+        <v>173.5470543578658</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642338</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C34" t="n">
-        <v>78.39228378124814</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G34" t="n">
-        <v>149.906871706555</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854409</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>99.05826901051944</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U34" t="n">
-        <v>264.2991505221801</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>255.4758721527162</v>
@@ -3252,7 +3252,7 @@
         <v>260.6079523890573</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617564</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>206.8173261679659</v>
@@ -3277,16 +3277,16 @@
         <v>394.5257978711152</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686923</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G35" t="n">
-        <v>388.9699858089391</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H35" t="n">
         <v>292.1283969414021</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894053</v>
+        <v>69.81722959894051</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>238.8188713659279</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>123.249269622013</v>
       </c>
       <c r="W35" t="n">
-        <v>364.2516823990261</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X35" t="n">
-        <v>380.96594839558</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.8373968265194</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>170.1516938729469</v>
       </c>
       <c r="C37" t="n">
-        <v>7.066081810622476</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.7489756841973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.8568349817318</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759079</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U37" t="n">
-        <v>264.2991505221801</v>
+        <v>42.77209323705186</v>
       </c>
       <c r="V37" t="n">
         <v>255.4758721527162</v>
@@ -3508,22 +3508,22 @@
         <v>390.3523293227055</v>
       </c>
       <c r="D38" t="n">
-        <v>384.748275150713</v>
+        <v>247.1466107119398</v>
       </c>
       <c r="E38" t="n">
         <v>394.5257978711152</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686923</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G38" t="n">
-        <v>388.9699858089391</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H38" t="n">
         <v>292.1283969414021</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894053</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>238.8188713659279</v>
       </c>
       <c r="V38" t="n">
-        <v>123.249269622013</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W38" t="n">
-        <v>364.2516823990261</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X38" t="n">
-        <v>380.96594839558</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y38" t="n">
         <v>381.2562908642337</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.906871706555</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.56803671922202</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>68.74897568419729</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U40" t="n">
-        <v>264.2991505221801</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W40" t="n">
-        <v>38.62915859324398</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>220.2894080617564</v>
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>158.3449400448986</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>136.1769805884548</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>191.0989836138131</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>208.933067249405</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>94.28345924494273</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>62.55589659496918</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570.0645900620057</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C2" t="n">
-        <v>563.9804034156798</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5568775491444</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E2" t="n">
-        <v>553.2570661064451</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>536.2670581005367</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4366,16 +4366,16 @@
         <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1380.929167557543</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>1380.929167557543</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>980.2857697264951</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y2" t="n">
-        <v>980.2857697264951</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>81.91922121582792</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>537.7254774811266</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1054.568412147452</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M3" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>887.0165910653891</v>
+        <v>1322.647294139299</v>
       </c>
       <c r="C4" t="n">
-        <v>887.0165910653891</v>
+        <v>1151.553921701016</v>
       </c>
       <c r="D4" t="n">
-        <v>887.0165910653891</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="E4" t="n">
-        <v>726.1057759337085</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="F4" t="n">
-        <v>726.1057759337085</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G4" t="n">
-        <v>558.8553848592519</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I4" t="n">
         <v>558.8553848592519</v>
@@ -4512,28 +4512,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V4" t="n">
-        <v>1294.242908558238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.173244067113</v>
+        <v>1973.426561284895</v>
       </c>
       <c r="X4" t="n">
-        <v>1015.173244067113</v>
+        <v>1735.082699144579</v>
       </c>
       <c r="Y4" t="n">
-        <v>887.0165910653891</v>
+        <v>1510.347000533344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>713.6474961525632</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C5" t="n">
-        <v>303.5229054658333</v>
+        <v>1045.702027075742</v>
       </c>
       <c r="D5" t="n">
-        <v>303.0993795992979</v>
+        <v>1045.278501209206</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>630.938285726103</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
         <v>1571.411346813777</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>675.1644281008379</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>675.1644281008379</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008379</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008379</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
         <v>1192.007362767163</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.3615225997325</v>
+        <v>649.6099637723298</v>
       </c>
       <c r="C7" t="n">
-        <v>325.3615225997325</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="D7" t="n">
-        <v>325.3615225997325</v>
+        <v>319.0219466569564</v>
       </c>
       <c r="E7" t="n">
-        <v>325.3615225997325</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
         <v>158.1111315252759</v>
@@ -4758,19 +4758,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>788.4410833512843</v>
+        <v>649.6099637723298</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4410833512843</v>
+        <v>649.6099637723298</v>
       </c>
       <c r="X7" t="n">
-        <v>550.0972212109677</v>
+        <v>649.6099637723298</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.3615225997325</v>
+        <v>649.6099637723298</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>586.9476870282217</v>
+        <v>1331.299278140587</v>
       </c>
       <c r="C8" t="n">
-        <v>176.8230963414918</v>
+        <v>1325.215091494262</v>
       </c>
       <c r="D8" t="n">
-        <v>176.3995704749564</v>
+        <v>920.751161587322</v>
       </c>
       <c r="E8" t="n">
-        <v>166.0997590322572</v>
+        <v>506.4109461042187</v>
       </c>
       <c r="F8" t="n">
-        <v>149.1097510263488</v>
+        <v>85.38053405790629</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W8" t="n">
-        <v>997.1688666927112</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X8" t="n">
-        <v>997.1688666927112</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="Y8" t="n">
-        <v>997.1688666927112</v>
+        <v>1337.480053764673</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N9" t="n">
         <v>1221.566882129793</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1288.365834796576</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="X10" t="n">
-        <v>1288.365834796576</v>
+        <v>1110.330448771344</v>
       </c>
       <c r="Y10" t="n">
-        <v>1131.098935930739</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5071,22 +5071,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>183.4222192247803</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O12" t="n">
-        <v>1809.878870496807</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
         <v>2110.173374178493</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>537.6043928557206</v>
+        <v>630.1860124883463</v>
       </c>
       <c r="C13" t="n">
-        <v>396.3079312521219</v>
+        <v>488.8895508847476</v>
       </c>
       <c r="D13" t="n">
-        <v>317.2463129913835</v>
+        <v>359.1918170423424</v>
       </c>
       <c r="E13" t="n">
-        <v>317.2463129913835</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F13" t="n">
-        <v>317.2463129913835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5226,25 +5226,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820137</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.451719820137</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.362885594343</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W13" t="n">
-        <v>941.0901319379027</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X13" t="n">
-        <v>732.5431806322709</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="Y13" t="n">
-        <v>537.6043928557206</v>
+        <v>630.1860124883463</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
@@ -5266,10 +5266,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5314,7 +5314,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
         <v>3463.023532176683</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>674.809389578345</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>496.645297282114</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="C16" t="n">
-        <v>496.645297282114</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="D16" t="n">
-        <v>496.645297282114</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="E16" t="n">
-        <v>365.5313929851184</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F16" t="n">
-        <v>230.6971779303945</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G16" t="n">
         <v>93.2436976906228</v>
@@ -5436,22 +5436,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751524</v>
+        <v>1098.759634274465</v>
       </c>
       <c r="W16" t="n">
-        <v>849.486880618024</v>
+        <v>849.4868806180243</v>
       </c>
       <c r="X16" t="n">
-        <v>849.486880618024</v>
+        <v>849.4868806180243</v>
       </c>
       <c r="Y16" t="n">
-        <v>654.5480928414736</v>
+        <v>654.5480928414738</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5554,13 +5554,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>839.1649570942416</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C19" t="n">
-        <v>697.8684954906429</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D19" t="n">
-        <v>568.1707616482378</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E19" t="n">
-        <v>437.0568573512421</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5679,7 +5679,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M19" t="n">
         <v>927.8555407749236</v>
@@ -5700,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1338.04534048635</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1205.614703959233</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W19" t="n">
-        <v>1205.614703959233</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X19" t="n">
-        <v>997.0677526536011</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y19" t="n">
-        <v>997.0677526536011</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1210.13812587521</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O21" t="n">
-        <v>1210.13812587521</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
-        <v>1771.84401836374</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2121.688483047723</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>491.8421692682057</v>
+        <v>708.0510527972459</v>
       </c>
       <c r="C22" t="n">
-        <v>350.545707664607</v>
+        <v>566.7545911936472</v>
       </c>
       <c r="D22" t="n">
-        <v>220.8479738222018</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="E22" t="n">
-        <v>220.8479738222018</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="F22" t="n">
-        <v>179.7928327516118</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G22" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H22" t="n">
         <v>179.7928327516118</v>
@@ -5937,25 +5937,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T22" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U22" t="n">
-        <v>1338.04534048635</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="V22" t="n">
-        <v>1093.956506260557</v>
+        <v>1269.439587438788</v>
       </c>
       <c r="W22" t="n">
-        <v>844.6837526041157</v>
+        <v>1269.439587438788</v>
       </c>
       <c r="X22" t="n">
-        <v>844.6837526041157</v>
+        <v>1060.892636133156</v>
       </c>
       <c r="Y22" t="n">
-        <v>649.7449648275652</v>
+        <v>865.9538483566055</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
         <v>430.910136076462</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>723.0747234921114</v>
+        <v>533.8759098929695</v>
       </c>
       <c r="C25" t="n">
-        <v>581.7782618885127</v>
+        <v>392.5794482893708</v>
       </c>
       <c r="D25" t="n">
-        <v>452.0805280461075</v>
+        <v>392.5794482893708</v>
       </c>
       <c r="E25" t="n">
-        <v>452.0805280461075</v>
+        <v>392.5794482893708</v>
       </c>
       <c r="F25" t="n">
-        <v>317.2463129913836</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H25" t="n">
         <v>179.7928327516118</v>
@@ -6174,25 +6174,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>1338.04534048635</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>1093.956506260557</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W25" t="n">
-        <v>844.6837526041157</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="X25" t="n">
-        <v>844.6837526041157</v>
+        <v>728.81469766952</v>
       </c>
       <c r="Y25" t="n">
-        <v>844.6837526041157</v>
+        <v>533.8759098929695</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2438.386230178005</v>
       </c>
       <c r="C26" t="n">
-        <v>2044.090948033858</v>
+        <v>2044.090948033857</v>
       </c>
       <c r="D26" t="n">
         <v>1655.456326669501</v>
       </c>
       <c r="E26" t="n">
-        <v>1256.945419728981</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252511</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606661</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309668</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6256,22 +6256,22 @@
         <v>4542.733117867823</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4301.501934669916</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3967.49368854898</v>
       </c>
       <c r="W26" t="n">
-        <v>3393.185520716173</v>
+        <v>3602.699555097703</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427709</v>
+        <v>3217.885465809238</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.264066918382</v>
+        <v>2832.778101299911</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.459825854784</v>
+        <v>356.5080021105326</v>
       </c>
       <c r="C28" t="n">
-        <v>748.1957619590833</v>
+        <v>201.243938214832</v>
       </c>
       <c r="D28" t="n">
-        <v>604.530425824576</v>
+        <v>201.243938214832</v>
       </c>
       <c r="E28" t="n">
-        <v>493.9833349224135</v>
+        <v>201.243938214832</v>
       </c>
       <c r="F28" t="n">
-        <v>345.1815175755876</v>
+        <v>201.243938214832</v>
       </c>
       <c r="G28" t="n">
-        <v>193.7604350437138</v>
+        <v>201.243938214832</v>
       </c>
       <c r="H28" t="n">
-        <v>193.7604350437138</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984187</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232421</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058882</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489669</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N28" t="n">
         <v>1169.450040445803</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074862</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P28" t="n">
         <v>1665.71470162706</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732156</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950139</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.751167372632</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T28" t="n">
-        <v>1506.751167372632</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="U28" t="n">
-        <v>1506.751167372632</v>
+        <v>1309.225738243357</v>
       </c>
       <c r="V28" t="n">
-        <v>1506.751167372632</v>
+        <v>1051.169301725462</v>
       </c>
       <c r="W28" t="n">
-        <v>1506.751167372632</v>
+        <v>787.9289457769188</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.236613774898</v>
+        <v>565.414392179185</v>
       </c>
       <c r="Y28" t="n">
-        <v>1075.330223706246</v>
+        <v>356.5080021105326</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2228.872195796475</v>
       </c>
       <c r="C29" t="n">
-        <v>2044.090948033858</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.456326669501</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.945419728981</v>
+        <v>1186.422965588637</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252511</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606661</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309668</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6551,19 +6551,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>924.5898784925689</v>
+        <v>751.5146037581271</v>
       </c>
       <c r="C31" t="n">
-        <v>769.3258145968682</v>
+        <v>596.2505398624265</v>
       </c>
       <c r="D31" t="n">
-        <v>625.660478462361</v>
+        <v>596.2505398624265</v>
       </c>
       <c r="E31" t="n">
-        <v>480.5789718732632</v>
+        <v>451.1690332733289</v>
       </c>
       <c r="F31" t="n">
-        <v>478.9596642275481</v>
+        <v>451.1690332733289</v>
       </c>
       <c r="G31" t="n">
-        <v>327.5385816956743</v>
+        <v>299.7479507414552</v>
       </c>
       <c r="H31" t="n">
         <v>193.7604350437138</v>
@@ -6621,28 +6621,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984187</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232421</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058882</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489669</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N31" t="n">
         <v>1169.450040445803</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074862</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P31" t="n">
         <v>1665.71470162706</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732156</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R31" t="n">
         <v>1677.313626950139</v>
@@ -6651,22 +6651,22 @@
         <v>1677.313626950139</v>
       </c>
       <c r="T31" t="n">
-        <v>1677.313626950139</v>
+        <v>1453.594196469424</v>
       </c>
       <c r="U31" t="n">
-        <v>1410.344788038846</v>
+        <v>1186.625357558131</v>
       </c>
       <c r="V31" t="n">
-        <v>1410.344788038846</v>
+        <v>1186.625357558131</v>
       </c>
       <c r="W31" t="n">
-        <v>1147.104432090303</v>
+        <v>923.3850016095886</v>
       </c>
       <c r="X31" t="n">
-        <v>924.5898784925689</v>
+        <v>923.3850016095886</v>
       </c>
       <c r="Y31" t="n">
-        <v>924.5898784925689</v>
+        <v>923.3850016095886</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2348.323962459791</v>
+        <v>2438.386230178005</v>
       </c>
       <c r="C32" t="n">
-        <v>1954.028680315644</v>
+        <v>2044.090948033857</v>
       </c>
       <c r="D32" t="n">
         <v>1655.456326669501</v>
       </c>
       <c r="E32" t="n">
-        <v>1256.945419728981</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F32" t="n">
-        <v>851.7443162252509</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G32" t="n">
-        <v>458.845340660666</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H32" t="n">
-        <v>163.7661518309668</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T32" t="n">
-        <v>4455.807709020582</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U32" t="n">
-        <v>4214.576525822675</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V32" t="n">
-        <v>3880.568279701738</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W32" t="n">
-        <v>3512.63728737949</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X32" t="n">
-        <v>3127.823198091025</v>
+        <v>3217.885465809238</v>
       </c>
       <c r="Y32" t="n">
-        <v>2742.715833581698</v>
+        <v>2832.778101299911</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>3084.569701873628</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>3084.569701873628</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N33" t="n">
-        <v>3958.227793985246</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3373.054899705005</v>
+        <v>520.9051682785067</v>
       </c>
       <c r="C34" t="n">
-        <v>3293.870774673441</v>
+        <v>520.9051682785067</v>
       </c>
       <c r="D34" t="n">
-        <v>3293.870774673441</v>
+        <v>520.9051682785067</v>
       </c>
       <c r="E34" t="n">
-        <v>3293.870774673441</v>
+        <v>375.8236616894091</v>
       </c>
       <c r="F34" t="n">
-        <v>3293.870774673441</v>
+        <v>227.0218443425832</v>
       </c>
       <c r="G34" t="n">
-        <v>3142.449692141568</v>
+        <v>227.0218443425832</v>
       </c>
       <c r="H34" t="n">
-        <v>3008.671545489607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3008.671545489607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3038.268400197403</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K34" t="n">
-        <v>3208.335033222226</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L34" t="n">
-        <v>3483.746438804872</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M34" t="n">
-        <v>3788.524800547951</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N34" t="n">
-        <v>4084.877888244787</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O34" t="n">
-        <v>4359.952803873846</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P34" t="n">
-        <v>4581.142549426044</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R34" t="n">
-        <v>4592.741474749122</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S34" t="n">
-        <v>4592.741474749122</v>
+        <v>1646.698179145773</v>
       </c>
       <c r="T34" t="n">
-        <v>4592.741474749122</v>
+        <v>1422.978748665058</v>
       </c>
       <c r="U34" t="n">
-        <v>4325.77263583783</v>
+        <v>1422.978748665058</v>
       </c>
       <c r="V34" t="n">
-        <v>4067.716199319934</v>
+        <v>1164.922312147163</v>
       </c>
       <c r="W34" t="n">
-        <v>3804.475843371391</v>
+        <v>901.6819561986206</v>
       </c>
       <c r="X34" t="n">
-        <v>3581.961289773657</v>
+        <v>901.6819561986206</v>
       </c>
       <c r="Y34" t="n">
-        <v>3373.054899705005</v>
+        <v>692.7755661299682</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1655.456326669501</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.945419728981</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252509</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G35" t="n">
         <v>458.8453406606659</v>
@@ -6973,13 +6973,13 @@
         <v>4095.124759159358</v>
       </c>
       <c r="V35" t="n">
-        <v>3761.116513038422</v>
+        <v>3970.630547419951</v>
       </c>
       <c r="W35" t="n">
-        <v>3393.185520716173</v>
+        <v>3602.699555097703</v>
       </c>
       <c r="X35" t="n">
-        <v>3008.371431427709</v>
+        <v>3217.885465809238</v>
       </c>
       <c r="Y35" t="n">
         <v>2832.778101299911</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>1266.074801429505</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3015.809001863973</v>
+        <v>393.589268175421</v>
       </c>
       <c r="C37" t="n">
-        <v>3008.671545489607</v>
+        <v>238.3252042797204</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.671545489607</v>
+        <v>238.3252042797204</v>
       </c>
       <c r="E37" t="n">
-        <v>3008.671545489607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3008.671545489607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3008.671545489607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3008.671545489607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3008.671545489607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3038.268400197403</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K37" t="n">
-        <v>3208.335033222226</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L37" t="n">
-        <v>3483.746438804872</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M37" t="n">
-        <v>3788.524800547951</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N37" t="n">
-        <v>4084.877888244787</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O37" t="n">
-        <v>4359.952803873846</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P37" t="n">
-        <v>4581.142549426044</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R37" t="n">
-        <v>4592.741474749122</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S37" t="n">
-        <v>4422.179015171615</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T37" t="n">
-        <v>4198.4595846909</v>
+        <v>1352.475146673935</v>
       </c>
       <c r="U37" t="n">
-        <v>3931.490745779607</v>
+        <v>1309.271012091054</v>
       </c>
       <c r="V37" t="n">
-        <v>3673.434309261711</v>
+        <v>1051.214575573159</v>
       </c>
       <c r="W37" t="n">
-        <v>3410.193953313169</v>
+        <v>787.9742196246164</v>
       </c>
       <c r="X37" t="n">
-        <v>3187.679399715435</v>
+        <v>565.4596660268826</v>
       </c>
       <c r="Y37" t="n">
-        <v>3187.679399715435</v>
+        <v>565.4596660268826</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2438.386230178005</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C38" t="n">
-        <v>2044.090948033857</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D38" t="n">
-        <v>1655.456326669501</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E38" t="n">
-        <v>1256.945419728981</v>
+        <v>1186.422965588637</v>
       </c>
       <c r="F38" t="n">
-        <v>851.7443162252509</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606659</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7210,16 +7210,16 @@
         <v>4095.124759159358</v>
       </c>
       <c r="V38" t="n">
-        <v>3970.630547419951</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W38" t="n">
-        <v>3602.699555097703</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.885465809238</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y38" t="n">
-        <v>2832.778101299911</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>837.4775041886278</v>
+        <v>326.5855177963429</v>
       </c>
       <c r="C40" t="n">
-        <v>682.2134402929272</v>
+        <v>326.5855177963429</v>
       </c>
       <c r="D40" t="n">
-        <v>538.5481041584201</v>
+        <v>326.5855177963429</v>
       </c>
       <c r="E40" t="n">
-        <v>393.4665975693224</v>
+        <v>326.5855177963429</v>
       </c>
       <c r="F40" t="n">
-        <v>244.6647802224965</v>
+        <v>326.5855177963429</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>326.5855177963429</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>192.8073711443824</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7341,43 +7341,43 @@
         <v>568.3185910058883</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489669</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N40" t="n">
         <v>1169.450040445803</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074862</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P40" t="n">
         <v>1665.71470162706</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732156</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R40" t="n">
-        <v>1746.757036732156</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S40" t="n">
-        <v>1746.757036732156</v>
+        <v>1506.751167372632</v>
       </c>
       <c r="T40" t="n">
-        <v>1746.757036732156</v>
+        <v>1283.031736891917</v>
       </c>
       <c r="U40" t="n">
-        <v>1479.788197820863</v>
+        <v>1016.062897980624</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.788197820863</v>
+        <v>758.006461462729</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.768845706476</v>
+        <v>758.006461462729</v>
       </c>
       <c r="X40" t="n">
-        <v>1218.254292108742</v>
+        <v>535.4919078649953</v>
       </c>
       <c r="Y40" t="n">
-        <v>1009.347902040089</v>
+        <v>326.5855177963429</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>93.2436976906228</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N42" t="n">
-        <v>524.2254458227151</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P42" t="n">
         <v>1789.888428857139</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>828.6312213896092</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C43" t="n">
-        <v>828.6312213896092</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D43" t="n">
-        <v>828.6312213896092</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1243.221549813794</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>960.4234023599183</v>
       </c>
       <c r="V43" t="n">
-        <v>828.6312213896092</v>
+        <v>686.5376572994403</v>
       </c>
       <c r="W43" t="n">
-        <v>828.6312213896092</v>
+        <v>686.5376572994403</v>
       </c>
       <c r="X43" t="n">
-        <v>828.6312213896092</v>
+        <v>448.1937951591237</v>
       </c>
       <c r="Y43" t="n">
-        <v>828.6312213896092</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
         <v>490.5039577458317</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.3370701289063</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>355.7299061842135</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>355.7299061842135</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>355.7299061842135</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>188.4795151097569</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>188.4795151097569</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1287.79033352843</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>1004.992186074554</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V46" t="n">
-        <v>731.1064410140764</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W46" t="n">
-        <v>452.0367765229507</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X46" t="n">
-        <v>452.0367765229507</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.0367765229507</v>
+        <v>515.2245508613034</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>333.3534809699548</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -7996,7 +7996,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>91.92897171537948</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>394.1192645454831</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8297,19 +8297,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>500.8626362276483</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>594.2603172363631</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N9" t="n">
-        <v>528.0883472030758</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8771,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>146.9151984756836</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>357.5874164994557</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>645.0043765542985</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9026,10 +9026,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>701.4825071992079</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
@@ -9491,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>767.5594446469316</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>77.22687637146549</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
@@ -10208,13 +10208,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>529.7246381472006</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>110.8279061298271</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10451,7 +10451,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>574.4763360814417</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10688,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N42" t="n">
-        <v>488.5284925170755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>531.8304305237483</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50.12975442585001</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>135.665545896724</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -23673,7 +23673,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>104.8629560313038</v>
       </c>
       <c r="W16" t="n">
-        <v>159.7840054463192</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>102.9568490806933</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>110.5416157216892</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,13 +24138,13 @@
         <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>92.84128324429258</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>78.28593482600056</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.93082878288169</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>41.43956243805525</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>207.4188940377148</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>3.105490282261314</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E28" t="n">
-        <v>34.18907153006587</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854409</v>
+        <v>25.52012706647372</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.51156997956005</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.74897568419729</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759079</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U28" t="n">
-        <v>264.2991505221801</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527163</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890573</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>207.4188940377147</v>
+        <v>137.601664438773</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>69.81722959894051</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.151693872947</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.7106846040997</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>27.51272464467687</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817319</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759079</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527163</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y31" t="n">
         <v>206.8173261679659</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>89.16164504103125</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2572489966831</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>207.4188940377141</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>75.3191394754955</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2286827731621</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956009</v>
+        <v>99.51156997956005</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>68.74897568419729</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817318</v>
+        <v>69.79856597121233</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759079</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>207.418894037714</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>207.4188940377144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>146.6453414461211</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>142.228682773162</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>147.3137991733576</v>
       </c>
       <c r="G37" t="n">
-        <v>149.906871706555</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854409</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997956006</v>
+        <v>99.51156997956005</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>68.74897568419729</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>221.5270572851281</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>137.6016644387732</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>69.81722959894051</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>207.418894037714</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854409</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956006</v>
+        <v>0.9435332603380289</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.7489756841973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817318</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759079</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>221.9787937958134</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>23.12472639190895</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.05426801925182</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>20.89912619177437</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>174.5973550380957</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>536688.0895138691</v>
+        <v>536688.089513869</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>536688.089513869</v>
+        <v>536688.0895138691</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>536688.089513869</v>
+        <v>536688.0895138691</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>515928.8831214721</v>
+        <v>515928.8831214722</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>515928.8831214721</v>
+        <v>515928.8831214723</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>515928.8831214722</v>
+        <v>515928.8831214721</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>515928.8831214721</v>
+        <v>515928.8831214723</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492402.7348096594</v>
+        <v>492402.7348096592</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>586376.6149168451</v>
+      </c>
+      <c r="C2" t="n">
         <v>586376.614916845</v>
       </c>
-      <c r="C2" t="n">
-        <v>586376.6149168451</v>
-      </c>
       <c r="D2" t="n">
-        <v>586376.6149168451</v>
+        <v>586376.6149168453</v>
       </c>
       <c r="E2" t="n">
+        <v>568257.9771323323</v>
+      </c>
+      <c r="F2" t="n">
+        <v>568257.9771323322</v>
+      </c>
+      <c r="G2" t="n">
+        <v>568257.9771323322</v>
+      </c>
+      <c r="H2" t="n">
         <v>568257.9771323318</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>568257.977132332</v>
       </c>
-      <c r="G2" t="n">
-        <v>568257.9771323318</v>
-      </c>
-      <c r="H2" t="n">
-        <v>568257.9771323323</v>
-      </c>
-      <c r="I2" t="n">
-        <v>568257.9771323318</v>
-      </c>
       <c r="J2" t="n">
-        <v>546277.6409521482</v>
+        <v>546277.6409521479</v>
       </c>
       <c r="K2" t="n">
-        <v>546277.640952148</v>
+        <v>546277.6409521481</v>
       </c>
       <c r="L2" t="n">
-        <v>546277.6409521478</v>
+        <v>546277.6409521474</v>
       </c>
       <c r="M2" t="n">
-        <v>546277.6409521478</v>
+        <v>546277.6409521477</v>
       </c>
       <c r="N2" t="n">
-        <v>546277.6409521475</v>
+        <v>546277.6409521479</v>
       </c>
       <c r="O2" t="n">
-        <v>521367.6015631689</v>
+        <v>521367.601563169</v>
       </c>
       <c r="P2" t="n">
-        <v>521367.601563169</v>
+        <v>521367.6015631688</v>
       </c>
     </row>
     <row r="3">
@@ -26426,13 +26426,13 @@
         <v>155118.3712081971</v>
       </c>
       <c r="E4" t="n">
-        <v>30548.1573470136</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="F4" t="n">
-        <v>30548.1573470136</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="G4" t="n">
-        <v>30548.15734701357</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="H4" t="n">
         <v>30548.15734701354</v>
@@ -26441,25 +26441,25 @@
         <v>30548.15734701354</v>
       </c>
       <c r="J4" t="n">
-        <v>16574.40558728383</v>
+        <v>16574.40558728391</v>
       </c>
       <c r="K4" t="n">
-        <v>16574.40558728383</v>
+        <v>16574.40558728391</v>
       </c>
       <c r="L4" t="n">
-        <v>16574.40558728386</v>
+        <v>16574.40558728391</v>
       </c>
       <c r="M4" t="n">
-        <v>16574.40558728389</v>
+        <v>16574.40558728391</v>
       </c>
       <c r="N4" t="n">
-        <v>16574.40558728389</v>
+        <v>16574.40558728391</v>
       </c>
       <c r="O4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190933.6687370363</v>
+        <v>190933.6687370364</v>
       </c>
       <c r="C6" t="n">
-        <v>365889.1786301505</v>
+        <v>365889.1786301503</v>
       </c>
       <c r="D6" t="n">
-        <v>365889.1786301505</v>
+        <v>365889.1786301507</v>
       </c>
       <c r="E6" t="n">
-        <v>248635.7467279398</v>
+        <v>248585.4171785389</v>
       </c>
       <c r="F6" t="n">
-        <v>464364.6630084536</v>
+        <v>464314.3334590523</v>
       </c>
       <c r="G6" t="n">
-        <v>464364.6630084534</v>
+        <v>464314.3334590523</v>
       </c>
       <c r="H6" t="n">
-        <v>464364.6630084539</v>
+        <v>464314.333459052</v>
       </c>
       <c r="I6" t="n">
-        <v>464364.6630084534</v>
+        <v>464314.3334590522</v>
       </c>
       <c r="J6" t="n">
-        <v>308388.9653499027</v>
+        <v>308277.5793111115</v>
       </c>
       <c r="K6" t="n">
-        <v>457520.5785215232</v>
+        <v>457409.1924827324</v>
       </c>
       <c r="L6" t="n">
-        <v>457520.5785215229</v>
+        <v>457409.1924827317</v>
       </c>
       <c r="M6" t="n">
-        <v>297162.1280208401</v>
+        <v>297050.7419820492</v>
       </c>
       <c r="N6" t="n">
-        <v>457520.5785215226</v>
+        <v>457409.1924827321</v>
       </c>
       <c r="O6" t="n">
-        <v>449764.2633881509</v>
+        <v>449583.6827955019</v>
       </c>
       <c r="P6" t="n">
-        <v>449764.263388151</v>
+        <v>449583.6827955017</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H2" t="n">
         <v>29.49894172633797</v>
@@ -26709,19 +26709,19 @@
         <v>29.49894172633797</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>308.3717059745276</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>365.6721757243775</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>162.5995248529595</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.61325515341667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>172.9369714902187</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>323.6678861525071</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27776,19 +27776,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27830,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.352310913005454</v>
+        <v>144.8796685091775</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>383.8580275794144</v>
+        <v>361.4617073220749</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081136</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.79411174794387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="20">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715698</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715701</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715704</v>
+        <v>15.67101545715706</v>
       </c>
     </row>
     <row r="41">
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34716,7 +34716,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.55973291537946</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>338.004740734634</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.0368534430329</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>474.8949538093259</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35424,13 +35424,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.08941569106818</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>303.327781496652</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533855</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>587.440092815881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533855</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35813,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>648.289113805458</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>18.22667726606008</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615751</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K28" t="n">
-        <v>171.7844778028519</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723697</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M28" t="n">
         <v>307.8569310536149</v>
       </c>
       <c r="N28" t="n">
-        <v>299.3465532291269</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303632</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062604</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060227</v>
+        <v>81.86094455060234</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N29" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O29" t="n">
         <v>650.1321781990958</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
@@ -36928,13 +36928,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615751</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K31" t="n">
-        <v>171.7844778028519</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723697</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M31" t="n">
         <v>307.8569310536149</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3465532291269</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303632</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062604</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060227</v>
+        <v>81.86094455060234</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>473.6101143363516</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>57.63451273607708</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615754</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7844778028519</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723697</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M34" t="n">
         <v>307.8569310536149</v>
@@ -37241,13 +37241,13 @@
         <v>299.346553229127</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303632</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062604</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.8609445506023</v>
+        <v>81.86094455060234</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>516.9120523430242</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615757</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K37" t="n">
         <v>171.784477802852</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723697</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M37" t="n">
         <v>307.8569310536149</v>
@@ -37481,10 +37481,10 @@
         <v>277.8534501303633</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062604</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060233</v>
+        <v>81.86094455060234</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615757</v>
+        <v>29.89581283615759</v>
       </c>
       <c r="K40" t="n">
         <v>171.784477802852</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723697</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M40" t="n">
         <v>307.8569310536149</v>
@@ -37718,10 +37718,10 @@
         <v>277.8534501303633</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062604</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060233</v>
+        <v>81.86094455060234</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N42" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>478.6370371299984</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
